--- a/app/server/static/templates/reports/Dairy_Provincial_Producer_Farm_Quality_Template.xlsx
+++ b/app/server/static/templates/reports/Dairy_Provincial_Producer_Farm_Quality_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcsystems.sharepoint.com/projects/Shared Documents/MALS/CDOGS/Development/MALS_Templates/Reports/Dairy-Provincial_Farm_Quality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MALS\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{5BFC9CE9-1950-42C0-80A8-D9E07C21CB65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02E12A5F-8E1B-634C-8C87-EE2434CF62B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A2492-C625-4A9C-B11F-31317D6F7C86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincial Producer's Farm Qual" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>IRMA Number</t>
   </si>
   <si>
-    <t>Date &amp; Time Report Created</t>
-  </si>
-  <si>
     <t>Provincial Producer's Farm Quality Report</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>{d.IBC_Report_Avg}</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Report Created (UTC)</t>
   </si>
 </sst>
 </file>
@@ -495,60 +495,60 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -565,53 +565,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -621,21 +621,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -846,32 +831,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3F295B-7781-430C-A898-DEFC652D2608}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7510402D-B665-46AA-B7AD-4F20A6E4C95D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DE440C-2EE6-4170-A9CF-5142C5442628}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -888,4 +863,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7510402D-B665-46AA-B7AD-4F20A6E4C95D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3F295B-7781-430C-A898-DEFC652D2608}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>